--- a/data/trans_dic/P29A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6074688213861464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.513492902776276</v>
+        <v>0.5134929027762762</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2366494195395147</v>
@@ -685,7 +685,7 @@
         <v>0.2613768573371736</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2358606829987364</v>
+        <v>0.2358606829987365</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4222247673095055</v>
@@ -697,7 +697,7 @@
         <v>0.4311103169065228</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3704204794841358</v>
+        <v>0.3704204794841359</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5667890671943748</v>
+        <v>0.573833201464092</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5282938448782639</v>
+        <v>0.5332222032979217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5687068946974416</v>
+        <v>0.5708095245554387</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4705031449060067</v>
+        <v>0.4765749780478507</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2026618810271865</v>
+        <v>0.2088269910144083</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1824968982349953</v>
+        <v>0.1798344089836608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2276562930169792</v>
+        <v>0.2300825882115066</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2099489131747823</v>
+        <v>0.2104611256212533</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3945006345968483</v>
+        <v>0.3955551203881995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3624367418833436</v>
+        <v>0.362741333425271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4047843981598042</v>
+        <v>0.4024210922803513</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3466506330193098</v>
+        <v>0.3465746934551539</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6408140814026573</v>
+        <v>0.6479944505370213</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6072049319992449</v>
+        <v>0.6095837653109643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6471407126231586</v>
+        <v>0.6466475563635662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5550235518168889</v>
+        <v>0.5583771804864178</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2686431510235922</v>
+        <v>0.2704717397507775</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.248701853230738</v>
+        <v>0.2482448756586687</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2959803724860255</v>
+        <v>0.2939753465124958</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2664062262027581</v>
+        <v>0.263813120997375</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4472439574485144</v>
+        <v>0.4481456077350122</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4176458121694311</v>
+        <v>0.4156376832819446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4567584831213972</v>
+        <v>0.4586323441950473</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3971562988915617</v>
+        <v>0.3979118241608239</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5492210533280187</v>
+        <v>0.5519451585214413</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5191385659046871</v>
+        <v>0.5196081635855009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5077491808765237</v>
+        <v>0.5098673593849639</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4421069451477284</v>
+        <v>0.4455239283941346</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2333647530721147</v>
+        <v>0.2322100127282479</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2212632125413969</v>
+        <v>0.2174210758541197</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2589501492964623</v>
+        <v>0.2605522282440096</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1859778435102421</v>
+        <v>0.1865703165181793</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3997583250080022</v>
+        <v>0.3965385979262966</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3727525743633029</v>
+        <v>0.3744342935097842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.389569010621654</v>
+        <v>0.3887660326416031</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3212126757787728</v>
+        <v>0.31951380882591</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.617607426665073</v>
+        <v>0.6199622267035712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5839319001322301</v>
+        <v>0.5839443482600746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5747721274605904</v>
+        <v>0.5753623182862491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5139468750488833</v>
+        <v>0.5163215914412952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2900299439499717</v>
+        <v>0.2926001325455311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2726295056973126</v>
+        <v>0.2735550242085653</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3135731545383187</v>
+        <v>0.3192023518821554</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2316307291441217</v>
+        <v>0.2318261483032061</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4456469505060298</v>
+        <v>0.4454971593545608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4202164495439806</v>
+        <v>0.4177672580551204</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4351842071566286</v>
+        <v>0.4335866234381028</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3646147714423659</v>
+        <v>0.3661027790858017</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2802076849728906</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2484244408521717</v>
+        <v>0.2484244408521716</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3163235770649409</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4165384303799106</v>
+        <v>0.4167177883502878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5213800820639578</v>
+        <v>0.5199767403458718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5056705190758581</v>
+        <v>0.506953110469502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4094197924268564</v>
+        <v>0.4102692444260275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1503784648865327</v>
+        <v>0.1545172006559098</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.204040632599302</v>
+        <v>0.2053253999368685</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2455727339000342</v>
+        <v>0.2482496060648508</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2197781772646896</v>
+        <v>0.2186887634402374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2905673007222786</v>
+        <v>0.2905000896479109</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3703645718282267</v>
+        <v>0.367706792212323</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3863104547477016</v>
+        <v>0.3835610531672956</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3227757619899222</v>
+        <v>0.3234416310008023</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4959937162437643</v>
+        <v>0.4969767738054914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5987567092516419</v>
+        <v>0.595083730985295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5798871558903315</v>
+        <v>0.5830901591910381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4899530603419632</v>
+        <v>0.4970113912197671</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2072648066959018</v>
+        <v>0.2138348883244268</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2709476551228476</v>
+        <v>0.2733650148109346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3115102196199496</v>
+        <v>0.3130084613412815</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2795350403555164</v>
+        <v>0.2772758005823234</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3421325439264714</v>
+        <v>0.3415530542959242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.421034025917936</v>
+        <v>0.4215122796104231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4400728847951794</v>
+        <v>0.4378816560088817</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.374028870110464</v>
+        <v>0.3738766030230721</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4820079791128729</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3688827584716037</v>
+        <v>0.3688827584716036</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5021627529229491</v>
+        <v>0.5023808505108581</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5301605939196933</v>
+        <v>0.5286680784606291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5674130740840004</v>
+        <v>0.5675232280455338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4334930299863843</v>
+        <v>0.4380858181439948</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2508182983091103</v>
+        <v>0.253149061346981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2799744382273353</v>
+        <v>0.2828371105231909</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3482822410603422</v>
+        <v>0.3455723782380097</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2546385494667991</v>
+        <v>0.2559294097336395</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3802445859184519</v>
+        <v>0.3806287623317551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4055598452245218</v>
+        <v>0.407832889332586</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4592118345803847</v>
+        <v>0.4570202157895493</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3499345383100628</v>
+        <v>0.3486421282829704</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5683052360189236</v>
+        <v>0.5687421774625805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6001337423093585</v>
+        <v>0.5986562919669003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6335265658053812</v>
+        <v>0.6329872583058999</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5012278605101651</v>
+        <v>0.5058052259387338</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3068642366070398</v>
+        <v>0.3087653200058659</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3401674895668994</v>
+        <v>0.3402018532321606</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4104465288465071</v>
+        <v>0.4119518287930912</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3038579017927391</v>
+        <v>0.3039652867071719</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4234024629920293</v>
+        <v>0.4254046928114237</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4520893281782319</v>
+        <v>0.4525132645482494</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5050855930201014</v>
+        <v>0.5049850618470847</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.389436032780837</v>
+        <v>0.3881109043028399</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5712487024919554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2451746687844678</v>
@@ -1241,7 +1241,7 @@
         <v>0.4353840613056019</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>388936</v>
+        <v>393770</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>353529</v>
+        <v>356827</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>365690</v>
+        <v>367043</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>323918</v>
+        <v>328098</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139102</v>
+        <v>143333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>126135</v>
+        <v>124295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>152102</v>
+        <v>153723</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>153683</v>
+        <v>154058</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>541485</v>
+        <v>542932</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>493042</v>
+        <v>493456</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>530729</v>
+        <v>527631</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>492401</v>
+        <v>492293</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>439733</v>
+        <v>444660</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>406336</v>
+        <v>407928</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>416125</v>
+        <v>415808</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>382106</v>
+        <v>384415</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>184389</v>
+        <v>185644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>171893</v>
+        <v>171577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>197750</v>
+        <v>196411</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>195010</v>
+        <v>193112</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>613879</v>
+        <v>615117</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>568146</v>
+        <v>565414</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>598875</v>
+        <v>601332</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>564142</v>
+        <v>565215</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>521249</v>
+        <v>523835</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>506082</v>
+        <v>506539</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>503307</v>
+        <v>505407</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>463210</v>
+        <v>466790</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>224215</v>
+        <v>223105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>222840</v>
+        <v>218970</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>264854</v>
+        <v>266493</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>198721</v>
+        <v>199354</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>763482</v>
+        <v>757333</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>738786</v>
+        <v>742119</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>784612</v>
+        <v>782995</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>679767</v>
+        <v>676172</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>586153</v>
+        <v>588388</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>569245</v>
+        <v>569258</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>569743</v>
+        <v>570328</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>538479</v>
+        <v>540967</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>278658</v>
+        <v>281128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>274572</v>
+        <v>275504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>320723</v>
+        <v>326480</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>247502</v>
+        <v>247711</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>851123</v>
+        <v>850837</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>832858</v>
+        <v>828004</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>876483</v>
+        <v>873266</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>771617</v>
+        <v>774766</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>277650</v>
+        <v>277770</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>374460</v>
+        <v>373452</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>375398</v>
+        <v>376350</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>327387</v>
+        <v>328066</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>102201</v>
+        <v>105013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>154354</v>
+        <v>155326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>189449</v>
+        <v>191514</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>177941</v>
+        <v>177059</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>391159</v>
+        <v>391068</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>546176</v>
+        <v>542256</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>584809</v>
+        <v>580647</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>519435</v>
+        <v>520507</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>330613</v>
+        <v>331268</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>430032</v>
+        <v>427394</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>430495</v>
+        <v>432873</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>391785</v>
+        <v>397429</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>140862</v>
+        <v>145327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>204969</v>
+        <v>206797</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>240316</v>
+        <v>241472</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>226322</v>
+        <v>224493</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>460575</v>
+        <v>459795</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>620898</v>
+        <v>621603</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>666196</v>
+        <v>662879</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>601915</v>
+        <v>601670</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>467391</v>
+        <v>467594</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>483679</v>
+        <v>482318</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>516855</v>
+        <v>516955</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>428709</v>
+        <v>433252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>259219</v>
+        <v>261628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>288756</v>
+        <v>291709</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>357229</v>
+        <v>354450</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>284073</v>
+        <v>285513</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>746895</v>
+        <v>747650</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>788283</v>
+        <v>792702</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>889303</v>
+        <v>885059</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>736458</v>
+        <v>733738</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>528954</v>
+        <v>529361</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>547518</v>
+        <v>546170</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>577077</v>
+        <v>576586</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>495697</v>
+        <v>500224</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>317142</v>
+        <v>319107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>350837</v>
+        <v>350873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>420990</v>
+        <v>422534</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>338982</v>
+        <v>339102</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>831668</v>
+        <v>835601</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>878722</v>
+        <v>879546</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>978142</v>
+        <v>977947</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>819591</v>
+        <v>816802</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
     </row>
     <row r="24">
